--- a/biology/Zoologie/Dacnis_de_Hartlaub/Dacnis_de_Hartlaub.xlsx
+++ b/biology/Zoologie/Dacnis_de_Hartlaub/Dacnis_de_Hartlaub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dacnis hartlaubi
 Le Dacnis de Hartlaub (Dacnis hartlaubi) est une espèce de passereaux de la famille des Thraupidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de Colombie. 
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau habite la forêt humide tropicale et subtropicale de basse montagne, ainsi que les plantations de café et de cacao où on le trouve principalement dans les Inga et les Cordia alliodora plantés par l'Homme pour faire de l'ombre au plantations. Il vit généralement entre 1 350 et 2 200 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau habite la forêt humide tropicale et subtropicale de basse montagne, ainsi que les plantations de café et de cacao où on le trouve principalement dans les Inga et les Cordia alliodora plantés par l'Homme pour faire de l'ombre au plantations. Il vit généralement entre 1 350 et 2 200 m.
 Il est menacé par la perte de son habitat.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit probablement de fruits et d'insectes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit probablement de fruits et d'insectes.
 </t>
         </is>
       </c>
